--- a/data.xlsx
+++ b/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -403,32 +403,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="15">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -459,30 +439,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -863,7 +819,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1184,12 +1140,22 @@
       <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:18" ht="16.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="12">
+        <v>46000</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="18">
+        <v>11372</v>
+      </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="18"/>
@@ -1622,30 +1588,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F33:P100 G2:I32 L2:P32">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>OR(LOWER(F2)="low",LOWER(F2)="y")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K32">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>AND(K2&lt;&gt;"", OR(K2&lt;2, K2&gt;10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L32">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>AND(L2&lt;&gt;"", ISNUMBER(L2), L2&gt;=106, L2&lt;=120)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>AND(L2&lt;&gt;" ", ISNUMBER(L2), L2&gt;=100, L2&lt;=105)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G32">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND(G2&lt;&gt;"", LOWER(G2)="yes")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H32">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND(H2&lt;&gt;"", LOWER(H2)="yes")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1661,8 +1627,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2137,22 +2103,52 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="16.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="12">
+        <v>46000</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="18">
+        <v>13896</v>
+      </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="8">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9">
+        <v>65</v>
+      </c>
+      <c r="K10" s="9">
+        <v>23</v>
+      </c>
+      <c r="L10" s="8">
+        <v>73</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:18" ht="16.5">
@@ -2577,17 +2573,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F33:P100 F2:I6 L2:P6 L10:P32 F10:I32">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>OR(LOWER(F2)="low",LOWER(F2)="y")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J6 J10:J32">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>AND(J2&lt;&gt;"", OR(J2&lt;3, J2&gt;8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K6 K10:K32">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND(K2&lt;&gt;"", OR(K2&lt;2, K2&gt;10))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2597,12 +2593,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J9">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(J7&lt;&gt;"", OR(J7&lt;3, J7&gt;8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(K7&lt;&gt;"", OR(K7&lt;2, K7&gt;10))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3278,7 +3274,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:N100">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(LOWER(J2)="low",LOWER(J2)="y")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3335,10 +3331,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E100">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>OR(LOWER(B2)="replace",LOWER(B2)="adjust",LOWER(B2)="n")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>OR(LOWER(B2)="clean",LOWER(B2)="ok",LOWER(B2)="y")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Last service date</t>
-  </si>
-  <si>
-    <t>Next service date</t>
   </si>
   <si>
     <t xml:space="preserve"> Run Hours</t>
@@ -125,9 +122,6 @@
     <t>Run Hours</t>
   </si>
   <si>
-    <t>Hours at last service</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>standby</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -183,6 +174,12 @@
   </si>
   <si>
     <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Prefilter cleaned</t>
+  </si>
+  <si>
+    <t>Faulty, battery weak for start up without 230v supply</t>
   </si>
 </sst>
 </file>
@@ -818,8 +815,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -851,13 +848,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
@@ -872,19 +869,19 @@
         <v>3</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>14</v>
@@ -902,10 +899,10 @@
         <v>45992</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="18">
         <v>11372</v>
@@ -914,7 +911,7 @@
         <v>11602</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -927,7 +924,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5">
@@ -935,17 +932,17 @@
         <v>45993</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="18">
         <v>11372</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -958,7 +955,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5">
@@ -966,23 +963,23 @@
         <v>45994</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="18">
         <v>11372</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="18"/>
       <c r="J4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="18"/>
@@ -991,7 +988,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5">
@@ -999,17 +996,17 @@
         <v>45995</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="18">
         <v>11372</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1021,24 +1018,26 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="16.5">
       <c r="A6" s="12">
         <v>45996</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="18">
         <v>11372</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1050,24 +1049,26 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="16.5">
       <c r="A7" s="12">
         <v>45997</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="18">
         <v>11372</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1079,24 +1080,26 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="25"/>
+      <c r="Q7" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="16.5">
       <c r="A8" s="12">
         <v>45998</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="18">
         <v>11372</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1108,24 +1111,26 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="25"/>
+      <c r="Q8" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="16.5">
       <c r="A9" s="12">
         <v>45999</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="18">
         <v>11372</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1137,24 +1142,26 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="25"/>
+      <c r="Q9" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="16.5">
       <c r="A10" s="12">
         <v>46000</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="18">
         <v>11372</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1166,15 +1173,27 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="25"/>
+      <c r="Q10" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="16.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="12">
+        <v>46001</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="18">
+        <v>11372</v>
+      </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="18"/>
@@ -1185,15 +1204,27 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="25"/>
+      <c r="Q11" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="16.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="12">
+        <v>46002</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="18">
+        <v>11372</v>
+      </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="18"/>
@@ -1204,7 +1235,9 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="25"/>
+      <c r="Q12" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="16.5">
       <c r="A13" s="12"/>
@@ -1627,8 +1660,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1663,10 +1696,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
@@ -1681,19 +1714,19 @@
         <v>3</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>14</v>
@@ -1711,10 +1744,10 @@
         <v>45992</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="18">
         <v>13704</v>
@@ -1723,13 +1756,13 @@
         <v>13965</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" s="8">
         <v>7</v>
@@ -1744,19 +1777,19 @@
         <v>72</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5">
@@ -1764,23 +1797,23 @@
         <v>45993</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="18">
         <v>13724</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="8">
         <v>7</v>
@@ -1795,16 +1828,16 @@
         <v>74</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="25"/>
     </row>
@@ -1813,10 +1846,10 @@
         <v>45994</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="18">
         <v>13750</v>
@@ -1826,10 +1859,10 @@
         <v>9</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="8">
         <v>7</v>
@@ -1844,16 +1877,16 @@
         <v>72</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="25"/>
     </row>
@@ -1862,23 +1895,23 @@
         <v>45995</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="18">
         <v>13778</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" s="8">
         <v>7</v>
@@ -1893,16 +1926,16 @@
         <v>74</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="22"/>
     </row>
@@ -1911,23 +1944,23 @@
         <v>45996</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="18">
         <v>13799</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="8">
         <v>7</v>
@@ -1942,16 +1975,16 @@
         <v>73</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="22"/>
     </row>
@@ -1960,23 +1993,23 @@
         <v>45997</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="18">
         <v>13823</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="8">
         <v>7</v>
@@ -1991,16 +2024,16 @@
         <v>72</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="22"/>
     </row>
@@ -2009,23 +2042,23 @@
         <v>45998</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="18">
         <v>13848</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I8" s="8">
         <v>7</v>
@@ -2040,41 +2073,43 @@
         <v>73</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="16.5">
       <c r="A9" s="12">
         <v>45999</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="18">
         <v>13872</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" s="8">
         <v>7</v>
@@ -2089,16 +2124,16 @@
         <v>73</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="8"/>
     </row>
@@ -2107,23 +2142,23 @@
         <v>46000</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="18">
         <v>13896</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="8">
         <v>7</v>
@@ -2138,57 +2173,115 @@
         <v>73</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:18" ht="16.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="12">
+        <v>46001</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="18">
+        <v>13919</v>
+      </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9">
+        <v>65</v>
+      </c>
+      <c r="K11" s="9">
+        <v>21</v>
+      </c>
+      <c r="L11" s="8">
+        <v>72</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="P11" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="16.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="12">
+        <v>46002</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="18">
+        <v>13942</v>
+      </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="8">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
+        <v>64</v>
+      </c>
+      <c r="K12" s="9">
+        <v>21</v>
+      </c>
+      <c r="L12" s="8">
+        <v>73</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:18" ht="16.5">
@@ -2612,10 +2705,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2623,20 +2716,19 @@
     <col min="1" max="1" width="16.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="17.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17" style="19" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
-    <col min="15" max="15" width="42.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="42.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39" customHeight="1">
+    <row r="1" spans="1:14" ht="39" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2649,42 +2741,36 @@
       <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>19</v>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="12">
         <v>45992</v>
       </c>
@@ -2693,36 +2779,32 @@
       <c r="D2" s="12">
         <v>45964</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="18">
+        <v>884.7</v>
+      </c>
       <c r="F2" s="18">
-        <v>884.7</v>
-      </c>
-      <c r="G2" s="18">
-        <v>884.7</v>
-      </c>
-      <c r="H2" s="18">
         <v>250</v>
       </c>
-      <c r="I2" s="15">
-        <f>F2+H2</f>
+      <c r="G2" s="15">
+        <f>E2+F2</f>
         <v>1134.7</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="21">
+        <v>26</v>
+      </c>
+      <c r="K2" s="21">
         <v>0.75</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5">
       <c r="A3" s="12">
         <v>45993</v>
       </c>
@@ -2731,551 +2813,505 @@
       <c r="D3" s="12">
         <v>45980</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="18">
+      <c r="E3" s="18">
         <v>884.7</v>
       </c>
-      <c r="G3" s="18">
-        <v>884.7</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="15"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="21">
+        <v>26</v>
+      </c>
+      <c r="K3" s="21">
         <v>0.75</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="12">
         <v>45996</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="18">
+        <v>887.4</v>
+      </c>
+      <c r="F4" s="18">
+        <v>250</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1134.7</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5">
+      <c r="A5" s="12">
+        <v>46002</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="18">
+      <c r="D5" s="12"/>
+      <c r="E5" s="18">
         <v>887.4</v>
       </c>
-      <c r="G4" s="18">
-        <v>885</v>
-      </c>
-      <c r="H4" s="18">
-        <v>250</v>
-      </c>
-      <c r="I4" s="15">
-        <v>1134.7</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="J5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="21">
         <v>0.75</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5">
+      <c r="M5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5">
       <c r="A6" s="12"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5">
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5">
       <c r="A7" s="12"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="12"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5">
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5">
       <c r="A9" s="12"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5">
       <c r="A10" s="12"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5">
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5">
       <c r="A11" s="12"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5">
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5">
       <c r="A12" s="12"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5">
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5">
       <c r="A13" s="12"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.5">
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5">
       <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.5">
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5">
       <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" ht="16.5">
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5">
       <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.5">
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5">
       <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" ht="16.5">
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5">
       <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.5">
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5">
       <c r="A19" s="12"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.5">
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5">
       <c r="A20" s="12"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5">
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5">
       <c r="A21" s="12"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.5">
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" ht="16.5">
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5">
       <c r="A23" s="12"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.5">
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5">
       <c r="A24" s="12"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5">
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5">
       <c r="A25" s="12"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.5">
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5">
       <c r="A26" s="12"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.5">
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5">
       <c r="A27" s="12"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="K27" s="21"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.5">
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.5">
       <c r="A28" s="12"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="1:15" ht="16.5">
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5">
       <c r="A29" s="12"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="21"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-    </row>
-    <row r="30" spans="1:15" ht="16.5">
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.5">
       <c r="A30" s="12"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="21"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="1:15" ht="16.5">
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.5">
       <c r="A31" s="12"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="1:15" ht="16.5">
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="16.5">
       <c r="A32" s="12"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:N100">
+  <conditionalFormatting sqref="H2:L100">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>OR(LOWER(J2)="low",LOWER(J2)="y")</formula>
+      <formula>OR(LOWER(H2)="low",LOWER(H2)="y")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3308,16 +3344,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="18855" windowHeight="7110" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="18855" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ingersoll" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Faulty, battery weak for start up without 230v supply</t>
+  </si>
+  <si>
+    <t>Overdue for service</t>
   </si>
 </sst>
 </file>
@@ -815,8 +818,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1240,12 +1243,22 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="12">
+        <v>46003</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="18">
+        <v>11372</v>
+      </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
@@ -1660,8 +1673,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2285,23 +2298,55 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:18" ht="16.5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="12">
+        <v>46003</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="18">
+        <v>13970</v>
+      </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="8">
+        <v>7</v>
+      </c>
+      <c r="J13" s="9">
+        <v>60</v>
+      </c>
+      <c r="K13" s="9">
+        <v>18</v>
+      </c>
+      <c r="L13" s="8">
+        <v>73</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="16.5">
       <c r="A14" s="12"/>
@@ -2707,8 +2752,8 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3324,7 +3369,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Overdue for service</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Korir</t>
   </si>
 </sst>
 </file>
@@ -819,7 +825,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1272,12 +1278,22 @@
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:18" ht="16.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="12">
+        <v>46004</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="18">
+        <v>11372</v>
+      </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="18"/>
@@ -1291,12 +1307,22 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:18" ht="16.5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="12">
+        <v>46006</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="18">
+        <v>11372</v>
+      </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="18"/>
@@ -1674,7 +1700,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2349,42 +2375,106 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="12">
+        <v>46004</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="18">
+        <v>13989</v>
+      </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="8">
+        <v>7</v>
+      </c>
+      <c r="J14" s="9">
+        <v>62</v>
+      </c>
+      <c r="K14" s="9">
+        <v>18</v>
+      </c>
+      <c r="L14" s="8">
+        <v>73</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="16.5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="12">
+        <v>46006</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="18">
+        <v>14042</v>
+      </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="8">
+        <v>7</v>
+      </c>
+      <c r="J15" s="9">
+        <v>53</v>
+      </c>
+      <c r="K15" s="9">
+        <v>19</v>
+      </c>
+      <c r="L15" s="8">
+        <v>73</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="16.5">
       <c r="A16" s="12"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="18855" windowHeight="7110" activeTab="1"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="18855" windowHeight="7110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ingersoll" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Weekly_Monthly Checklist" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +190,9 @@
   </si>
   <si>
     <t>Korir</t>
+  </si>
+  <si>
+    <t>Faults solved by eplant team</t>
   </si>
 </sst>
 </file>
@@ -825,7 +829,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,12 +1340,22 @@
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:18" ht="16.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="12">
+        <v>46007</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="18">
+        <v>11373</v>
+      </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="18"/>
@@ -1699,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2477,23 +2491,55 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="12">
+        <v>46007</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="18">
+        <v>14063</v>
+      </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="8">
+        <v>7</v>
+      </c>
+      <c r="J16" s="9">
+        <v>53</v>
+      </c>
+      <c r="K16" s="9">
+        <v>21</v>
+      </c>
+      <c r="L16" s="8">
+        <v>73</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="16.5">
       <c r="A17" s="12"/>
@@ -2842,8 +2888,8 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2945,9 +2991,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="12">
-        <v>45980</v>
-      </c>
+      <c r="D3" s="12"/>
       <c r="E3" s="18">
         <v>884.7</v>
       </c>
@@ -3039,19 +3083,37 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="12">
+        <v>46007</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18">
+        <v>887</v>
+      </c>
       <c r="F6" s="18"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="21"/>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.75</v>
+      </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="16.5">
       <c r="A7" s="12"/>
@@ -3459,7 +3521,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
